--- a/INSS系统运维记录（汇总）.xlsx
+++ b/INSS系统运维记录（汇总）.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC0E182-6454-461B-9183-A07145C4CE95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Fix Problem" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="430">
   <si>
     <t>提出人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1069,10 +1068,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gera_Ficheiro_SITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INSS要求需要提前支付第12、13个月付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1348,9 +1343,6 @@
     <t>INSS_000065</t>
   </si>
   <si>
-    <t>INSS_000070</t>
-  </si>
-  <si>
     <t>INSS_000071</t>
   </si>
   <si>
@@ -1510,10 +1502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Requerimento =&gt;DiferençadeContribuições=&gt; RequerimentodeSolicitação</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Robin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1538,14 +1526,6 @@
   </si>
   <si>
     <t>SIS-445</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSS_000066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSS_000068</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1576,13 +1556,89 @@
   </si>
   <si>
     <t>INSS_000069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>Gera_Ficheiro_SITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gera_Pagamentos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIS-457</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tupac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tupac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSS_000066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIS-444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requerimento =&gt;DiferençadeContribuições=&gt; RequerimentodeSolicitação</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requerimento =&gt;Pagamento Antecipado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在MVS/TCP批量缴纳社保时，一个周期内(12个月)的申报月份不能超过这个周期。例如：第一次申报2个月，第二次申报不能超过12-2个月，只有申报周期结束后才能进行新的申报.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需新增申报记录起始日期数据项，用于处理每次的申报周期。
+每次申请时找到上一次申报数据，并判断新的申请可以有多少个月。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tupac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sayi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSS_000068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIS-433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSS_000070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月生成养老金Parcale时会校验受益人本年度是否验证生命，如果未进行生命验证，就会停止发放养老金，进行生命验证后重新发放，但是程序中的校验规则是“验证是否做过生命验证，位校验是最新年度”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前Sayi和技术主管Eden未进行处理，采用的临时方案。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1682,7 +1738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1757,6 +1813,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1786,7 +1845,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1803,7 +1862,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1878,23 +1937,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1930,23 +1972,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2122,13 +2147,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
+      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2151,34 +2176,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>378</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>380</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>80</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K1" s="25" t="s">
         <v>2</v>
@@ -2192,13 +2217,13 @@
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" s="2">
         <v>43262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -2219,7 +2244,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
@@ -2229,13 +2254,13 @@
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B3" s="2">
         <v>43266</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -2256,7 +2281,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="18"/>
@@ -2264,7 +2289,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="2">
         <v>43269</v>
@@ -2291,7 +2316,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>9</v>
@@ -2303,7 +2328,7 @@
     </row>
     <row r="5" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5" s="2">
         <v>43274</v>
@@ -2330,7 +2355,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>19</v>
@@ -2340,13 +2365,13 @@
     </row>
     <row r="6" spans="1:13" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B6" s="2">
         <v>43277</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -2367,7 +2392,7 @@
         <v>158</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>17</v>
@@ -2381,7 +2406,7 @@
     </row>
     <row r="7" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" s="2">
         <v>43280</v>
@@ -2408,7 +2433,7 @@
         <v>7</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>23</v>
@@ -2422,7 +2447,7 @@
     </row>
     <row r="8" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8" s="2">
         <v>43280</v>
@@ -2449,7 +2474,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>28</v>
@@ -2463,7 +2488,7 @@
     </row>
     <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="2">
         <v>43284</v>
@@ -2472,7 +2497,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>32</v>
@@ -2490,7 +2515,7 @@
         <v>26</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>29</v>
@@ -2500,13 +2525,13 @@
     </row>
     <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="2">
         <v>43284</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -2527,7 +2552,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="18"/>
@@ -2535,7 +2560,7 @@
     </row>
     <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" s="2">
         <v>43286</v>
@@ -2562,7 +2587,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>30</v>
@@ -2576,7 +2601,7 @@
     </row>
     <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B12" s="2">
         <v>43278</v>
@@ -2597,13 +2622,13 @@
         <v>3</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>37</v>
@@ -2613,13 +2638,13 @@
     </row>
     <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B13" s="2">
         <v>43290</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -2640,7 +2665,7 @@
         <v>157</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>40</v>
@@ -2654,13 +2679,13 @@
     </row>
     <row r="14" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B14" s="2">
         <v>43291</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
@@ -2681,7 +2706,7 @@
         <v>6</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>42</v>
@@ -2695,13 +2720,13 @@
     </row>
     <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B15" s="2">
         <v>43300</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -2722,7 +2747,7 @@
         <v>45</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>44</v>
@@ -2736,13 +2761,13 @@
     </row>
     <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B16" s="2">
         <v>43301</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -2763,7 +2788,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>52</v>
@@ -2777,7 +2802,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B17" s="2">
         <v>43306</v>
@@ -2804,7 +2829,7 @@
         <v>7</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>54</v>
@@ -2818,13 +2843,13 @@
     </row>
     <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B18" s="2">
         <v>43311</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -2845,10 +2870,10 @@
         <v>7</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L18" s="2">
         <v>43311</v>
@@ -2859,7 +2884,7 @@
     </row>
     <row r="19" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B19" s="2">
         <v>43318</v>
@@ -2886,7 +2911,7 @@
         <v>45</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>58</v>
@@ -2900,13 +2925,13 @@
     </row>
     <row r="20" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B20" s="2">
         <v>43326</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
@@ -2927,7 +2952,7 @@
         <v>61</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>66</v>
@@ -2941,7 +2966,7 @@
     </row>
     <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B21" s="2">
         <v>43327</v>
@@ -2968,7 +2993,7 @@
         <v>7</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>64</v>
@@ -2982,13 +3007,13 @@
     </row>
     <row r="22" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B22" s="2">
         <v>43327</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>3</v>
@@ -2997,7 +3022,7 @@
         <v>69</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G22" s="17">
         <v>4</v>
@@ -3009,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>145</v>
@@ -3023,13 +3048,13 @@
     </row>
     <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23" s="2">
         <v>43333</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
@@ -3050,7 +3075,7 @@
         <v>7</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>72</v>
@@ -3064,13 +3089,13 @@
     </row>
     <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B24" s="2">
         <v>43340</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
@@ -3091,7 +3116,7 @@
         <v>74</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>75</v>
@@ -3105,13 +3130,13 @@
     </row>
     <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B25" s="2">
         <v>43342</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
@@ -3132,7 +3157,7 @@
         <v>7</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>77</v>
@@ -3146,13 +3171,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B26" s="2">
         <v>43339</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>83</v>
@@ -3173,7 +3198,7 @@
         <v>74</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>85</v>
@@ -3187,16 +3212,16 @@
     </row>
     <row r="27" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B27" s="2">
         <v>43343</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>79</v>
@@ -3214,7 +3239,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="2">
@@ -3226,16 +3251,16 @@
     </row>
     <row r="28" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B28" s="2">
         <v>43354</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>88</v>
@@ -3253,7 +3278,7 @@
         <v>7</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="3"/>
@@ -3261,13 +3286,13 @@
     </row>
     <row r="29" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B29" s="2">
         <v>43354</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>3</v>
@@ -3276,7 +3301,7 @@
         <v>91</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G29" s="17">
         <v>4</v>
@@ -3288,7 +3313,7 @@
         <v>7</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>93</v>
@@ -3302,13 +3327,13 @@
     </row>
     <row r="30" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B30" s="2">
         <v>43355</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>3</v>
@@ -3317,7 +3342,7 @@
         <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G30" s="17">
         <v>4</v>
@@ -3329,7 +3354,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>95</v>
@@ -3343,13 +3368,13 @@
     </row>
     <row r="31" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B31" s="2">
         <v>43356</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -3358,7 +3383,7 @@
         <v>107</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G31" s="17">
         <v>4</v>
@@ -3370,7 +3395,7 @@
         <v>7</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>90</v>
@@ -3384,13 +3409,13 @@
     </row>
     <row r="32" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B32" s="2">
         <v>43357</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>3</v>
@@ -3399,7 +3424,7 @@
         <v>106</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G32" s="17">
         <v>4</v>
@@ -3409,7 +3434,7 @@
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>99</v>
@@ -3423,13 +3448,13 @@
     </row>
     <row r="33" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B33" s="2">
         <v>43360</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>3</v>
@@ -3448,7 +3473,7 @@
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>109</v>
@@ -3462,13 +3487,13 @@
     </row>
     <row r="34" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B34" s="2">
         <v>43361</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
@@ -3487,7 +3512,7 @@
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>113</v>
@@ -3501,13 +3526,13 @@
     </row>
     <row r="35" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B35" s="2">
         <v>43362</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>3</v>
@@ -3526,7 +3551,7 @@
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>122</v>
@@ -3540,16 +3565,16 @@
     </row>
     <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B36" s="2">
         <v>43363</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>123</v>
@@ -3565,7 +3590,7 @@
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>114</v>
@@ -3577,13 +3602,13 @@
     </row>
     <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B37" s="2">
         <v>43361</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
@@ -3602,7 +3627,7 @@
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>125</v>
@@ -3616,13 +3641,13 @@
     </row>
     <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B38" s="2">
         <v>43364</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
@@ -3641,7 +3666,7 @@
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>117</v>
@@ -3653,13 +3678,13 @@
     </row>
     <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B39" s="2">
         <v>43374</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
@@ -3668,7 +3693,7 @@
         <v>131</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G39" s="17">
         <v>4</v>
@@ -3678,7 +3703,7 @@
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>130</v>
@@ -3692,13 +3717,13 @@
     </row>
     <row r="40" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B40" s="2">
         <v>43370</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -3717,7 +3742,7 @@
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>136</v>
@@ -3731,13 +3756,13 @@
     </row>
     <row r="41" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2">
         <v>43372</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
@@ -3756,7 +3781,7 @@
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>138</v>
@@ -3770,13 +3795,13 @@
     </row>
     <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B42" s="2">
         <v>43375</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
@@ -3795,7 +3820,7 @@
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>139</v>
@@ -3809,13 +3834,13 @@
     </row>
     <row r="43" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2">
         <v>43375</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>3</v>
@@ -3834,7 +3859,7 @@
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>171</v>
@@ -3848,13 +3873,13 @@
     </row>
     <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B44" s="2">
         <v>43376</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
@@ -3873,7 +3898,7 @@
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>147</v>
@@ -3887,13 +3912,13 @@
     </row>
     <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B45" s="2">
         <v>43376</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>3</v>
@@ -3912,7 +3937,7 @@
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>150</v>
@@ -3926,13 +3951,13 @@
     </row>
     <row r="46" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B46" s="2">
         <v>43376</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>3</v>
@@ -3951,7 +3976,7 @@
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>153</v>
@@ -3965,13 +3990,13 @@
     </row>
     <row r="47" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B47" s="2">
         <v>43376</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>3</v>
@@ -3980,7 +4005,7 @@
         <v>154</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G47" s="17">
         <v>1</v>
@@ -3992,7 +4017,7 @@
         <v>132</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>133</v>
@@ -4006,13 +4031,13 @@
     </row>
     <row r="48" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B48" s="2">
         <v>43382</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
@@ -4031,7 +4056,7 @@
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>142</v>
@@ -4045,13 +4070,13 @@
     </row>
     <row r="49" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B49" s="2">
         <v>43384</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -4070,7 +4095,7 @@
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>164</v>
@@ -4084,13 +4109,13 @@
     </row>
     <row r="50" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B50" s="2">
         <v>43370</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>3</v>
@@ -4107,7 +4132,7 @@
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>162</v>
@@ -4121,7 +4146,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B51" s="2">
         <v>43389</v>
@@ -4148,7 +4173,7 @@
         <v>7</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>175</v>
@@ -4162,7 +4187,7 @@
     </row>
     <row r="52" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B52" s="2">
         <v>43390</v>
@@ -4189,7 +4214,7 @@
         <v>7</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>188</v>
@@ -4201,13 +4226,13 @@
     </row>
     <row r="53" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B53" s="2">
         <v>43390</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>211</v>
@@ -4228,7 +4253,7 @@
         <v>189</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>215</v>
@@ -4240,7 +4265,7 @@
     </row>
     <row r="54" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B54" s="2">
         <v>43405</v>
@@ -4267,7 +4292,7 @@
         <v>189</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>221</v>
@@ -4281,16 +4306,16 @@
     </row>
     <row r="55" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B55" s="2">
         <v>43403</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>191</v>
@@ -4308,7 +4333,7 @@
         <v>194</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>195</v>
@@ -4320,13 +4345,13 @@
     </row>
     <row r="56" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B56" s="2">
         <v>43410</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>3</v>
@@ -4335,7 +4360,7 @@
         <v>196</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G56" s="17">
         <v>3</v>
@@ -4347,7 +4372,7 @@
         <v>194</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>199</v>
@@ -4361,13 +4386,13 @@
     </row>
     <row r="57" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B57" s="2">
         <v>43412</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
@@ -4376,7 +4401,7 @@
         <v>200</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G57" s="17">
         <v>3</v>
@@ -4388,7 +4413,7 @@
         <v>7</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>202</v>
@@ -4402,7 +4427,7 @@
     </row>
     <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B58" s="2">
         <v>43419</v>
@@ -4423,16 +4448,16 @@
         <v>1</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L58" s="2">
         <v>43419</v>
@@ -4443,13 +4468,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B59" s="2">
         <v>43400</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>210</v>
@@ -4468,7 +4493,7 @@
         <v>7</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>223</v>
@@ -4482,13 +4507,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B60" s="2">
         <v>43432</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>209</v>
@@ -4509,7 +4534,7 @@
         <v>7</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="2">
@@ -4521,13 +4546,13 @@
     </row>
     <row r="61" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B61" s="2">
         <v>43411</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -4548,7 +4573,7 @@
         <v>7</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K61" s="13" t="s">
         <v>238</v>
@@ -4562,13 +4587,13 @@
     </row>
     <row r="62" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B62" s="2">
         <v>43411</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>3</v>
@@ -4589,7 +4614,7 @@
         <v>7</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>239</v>
@@ -4603,13 +4628,13 @@
     </row>
     <row r="63" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B63" s="2">
         <v>43412</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>3</v>
@@ -4630,7 +4655,7 @@
         <v>7</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>242</v>
@@ -4644,13 +4669,13 @@
     </row>
     <row r="64" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B64" s="2">
         <v>43412</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>3</v>
@@ -4671,7 +4696,7 @@
         <v>7</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>244</v>
@@ -4685,13 +4710,13 @@
     </row>
     <row r="65" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B65" s="2">
         <v>43413</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
@@ -4712,7 +4737,7 @@
         <v>7</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K65" s="21" t="s">
         <v>248</v>
@@ -4726,7 +4751,7 @@
     </row>
     <row r="66" spans="1:13" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B66" s="2">
         <v>43423</v>
@@ -4738,7 +4763,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>263</v>
+        <v>412</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>192</v>
@@ -4747,161 +4772,223 @@
         <v>1</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L66" s="2">
         <v>43455</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M66" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="E67" s="4"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="B67" s="2">
+        <v>43633</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G67" s="17">
+        <v>2</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K67" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="L67" s="2">
+        <v>43633</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="68" spans="1:13" s="3" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B68" s="2">
         <v>43615</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G68" s="17">
         <v>1</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I68" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="L68" s="2">
         <v>43615</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:13" s="3" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="B69" s="2">
         <v>43616</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="G69" s="17">
         <v>1</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L69" s="2">
         <v>43616</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B70" s="2">
         <v>43630</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G70" s="17">
         <v>4</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L70" s="2">
         <v>43640</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="3" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="4"/>
-      <c r="K71" s="4"/>
+        <v>427</v>
+      </c>
+      <c r="B71" s="2">
+        <v>43645</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G71" s="17">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="L71" s="2">
+        <v>43645</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="72" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E72" s="4"/>
       <c r="G72" s="17"/>
@@ -4910,7 +4997,7 @@
     </row>
     <row r="73" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E73" s="4"/>
       <c r="G73" s="17"/>
@@ -4919,7 +5006,7 @@
     </row>
     <row r="74" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E74" s="4"/>
       <c r="G74" s="17"/>
@@ -4928,7 +5015,7 @@
     </row>
     <row r="75" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E75" s="4"/>
       <c r="G75" s="17"/>
@@ -4937,7 +5024,7 @@
     </row>
     <row r="76" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E76" s="4"/>
       <c r="G76" s="17"/>
@@ -4946,7 +5033,7 @@
     </row>
     <row r="77" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E77" s="4"/>
       <c r="G77" s="17"/>
@@ -4955,7 +5042,7 @@
     </row>
     <row r="78" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E78" s="4"/>
       <c r="G78" s="17"/>
@@ -4964,7 +5051,7 @@
     </row>
     <row r="79" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E79" s="4"/>
       <c r="G79" s="17"/>
@@ -4973,7 +5060,7 @@
     </row>
     <row r="80" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E80" s="4"/>
       <c r="G80" s="17"/>
@@ -4982,7 +5069,7 @@
     </row>
     <row r="81" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E81" s="4"/>
       <c r="G81" s="17"/>
@@ -4991,7 +5078,7 @@
     </row>
     <row r="82" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E82" s="4"/>
       <c r="G82" s="17"/>
@@ -5000,7 +5087,7 @@
     </row>
     <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E83" s="4"/>
       <c r="G83" s="17"/>
@@ -5009,7 +5096,7 @@
     </row>
     <row r="84" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E84" s="4"/>
       <c r="G84" s="17"/>
@@ -5018,7 +5105,7 @@
     </row>
     <row r="85" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E85" s="4"/>
       <c r="G85" s="17"/>
@@ -5027,7 +5114,7 @@
     </row>
     <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E86" s="4"/>
       <c r="G86" s="17"/>
@@ -5036,7 +5123,7 @@
     </row>
     <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E87" s="4"/>
       <c r="G87" s="17"/>
@@ -5045,7 +5132,7 @@
     </row>
     <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E88" s="4"/>
       <c r="G88" s="17"/>
@@ -5054,7 +5141,7 @@
     </row>
     <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E89" s="4"/>
       <c r="G89" s="17"/>
@@ -5063,7 +5150,7 @@
     </row>
     <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E90" s="4"/>
       <c r="G90" s="17"/>
@@ -5072,7 +5159,7 @@
     </row>
     <row r="91" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E91" s="4"/>
       <c r="G91" s="17"/>
@@ -5081,7 +5168,7 @@
     </row>
     <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E92" s="4"/>
       <c r="G92" s="17"/>
@@ -5090,7 +5177,7 @@
     </row>
     <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E93" s="4"/>
       <c r="G93" s="17"/>
@@ -5099,7 +5186,7 @@
     </row>
     <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E94" s="4"/>
       <c r="G94" s="17"/>
@@ -5108,7 +5195,7 @@
     </row>
     <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E95" s="4"/>
       <c r="G95" s="17"/>
@@ -5117,7 +5204,7 @@
     </row>
     <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E96" s="4"/>
       <c r="G96" s="17"/>
@@ -5125,19 +5212,19 @@
       <c r="K96" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M96" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M96"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"SISSMO,SITE,GED,PROVA,SITE,M-CONTRIBUICAO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"BUG,FRS,MOD,ARCH,OTHER"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
       <formula1>"调查分析,优化处理,方案设计"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5147,7 +5234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5193,7 +5280,7 @@
         <v>1.5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5210,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -5227,7 +5314,7 @@
         <v>1.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5244,7 +5331,7 @@
         <v>1.5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="46.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -5261,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5316,7 +5403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5369,10 +5456,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
